--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_Image 1.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_Image 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29571419-9FE5-4DB5-B791-370362A989B3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4864AEA2-9C46-4876-A365-44E7F624334D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,59 +586,59 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="137" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="12" xfId="137" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="137" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="13" xfId="137" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="14" xfId="137" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="15" xfId="137" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="11" xfId="137" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="15" xfId="137" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="12" xfId="137" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="137" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="13" xfId="137" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="14" xfId="137" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="15" xfId="137" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="11" xfId="137" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="15" xfId="137" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1186,7 @@
       <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="29" t="s">
@@ -1206,334 +1206,334 @@
       <c r="N4" s="30"/>
     </row>
     <row r="5" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>4000</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="14">
+      <c r="E6" s="13"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="13">
         <v>4000</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
+    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="22">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>3600</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14">
+      <c r="E7" s="13"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="13">
         <v>3600</v>
       </c>
-      <c r="N7" s="14"/>
+      <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
+    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>-2800</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14">
+      <c r="E8" s="13"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13">
         <v>-2800</v>
       </c>
-      <c r="N8" s="14"/>
+      <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
+    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="14">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="13">
         <v>800</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14">
+      <c r="H9" s="20"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13">
         <v>-800</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23">
+    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22">
         <v>5</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13">
         <v>1600</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="14">
+      <c r="F10" s="20"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="13">
         <v>1600</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
-    <row r="11" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
+    <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22">
         <v>6</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>-700</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="14">
+      <c r="E11" s="13"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="13">
         <v>-700</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23">
+    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="14">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="13">
         <v>400</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14">
+      <c r="H12" s="20"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13">
         <v>-400</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
+    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="22">
         <v>8</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13">
         <v>2100</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14">
+      <c r="F13" s="20"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="13">
         <v>2100</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23">
+    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>1600</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>-1600</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23">
+    <row r="15" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="22">
         <v>10</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="16">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="15">
         <v>7300</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="14">
+      <c r="K15" s="14"/>
+      <c r="L15" s="13">
         <v>-7300</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="23">
+    <row r="16" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22">
         <v>11</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15">
         <f>-SUM(M16:N16)</f>
         <v>-4000</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16">
+      <c r="K16" s="16"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15">
         <f>-SUM(M6:M15)</f>
         <v>2800</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="15">
         <f>-SUM(N6:N15)</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="12" t="s">
+    <row r="17" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+      <c r="C17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <f>SUM(D6:D16)</f>
         <v>5700</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <f>SUM(E6:E16)</f>
         <v>2100</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18">
+      <c r="F17" s="18"/>
+      <c r="G17" s="17">
         <f>SUM(G6:G16)</f>
         <v>500</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18">
+      <c r="H17" s="18"/>
+      <c r="I17" s="17">
         <f>SUM(I6:I16)</f>
         <v>4000</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="17">
         <f>SUM(J6:J16)</f>
         <v>3300</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="18">
+      <c r="K17" s="14"/>
+      <c r="L17" s="17">
         <f>SUM(L6:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="17">
         <f>SUM(M6:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="17">
         <f>SUM(N6:N16)</f>
         <v>0</v>
       </c>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_Image 1.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_Image 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4864AEA2-9C46-4876-A365-44E7F624334D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E40614-4E27-4B5B-9A07-93B84C657515}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
     <col min="6" max="6" width="2.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.625" style="1" customWidth="1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_Image 1.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_Image 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B7DB50-CF45-4F48-850C-05A32CAB7531}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A7B4F-4108-4205-9104-7D9DF003E4B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -341,26 +341,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -371,29 +353,9 @@
       <top style="thin">
         <color rgb="FF8DB4E2"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -541,7 +503,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -624,13 +586,6 @@
     <xf numFmtId="37" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -643,19 +598,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,7 +1098,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1167,32 +1116,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1202,24 +1151,24 @@
       <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="11"/>
       <c r="M2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
     </row>
     <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +1457,7 @@
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="24">
         <v>2500</v>
       </c>
       <c r="D13" s="12"/>
@@ -1534,72 +1483,72 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="29"/>
     </row>
-    <row r="14" spans="1:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="22">
         <v>2500</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="40">
+      <c r="E14" s="29">
         <v>0</v>
       </c>
       <c r="F14" s="19"/>
-      <c r="G14" s="39">
+      <c r="G14" s="22">
         <v>0</v>
       </c>
       <c r="H14" s="19"/>
-      <c r="I14" s="40">
+      <c r="I14" s="24">
         <v>5000</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="39">
+      <c r="K14" s="22">
         <v>2500</v>
       </c>
       <c r="L14" s="11"/>
-      <c r="M14" s="39"/>
+      <c r="M14" s="24"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="41"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="40"/>
+      <c r="Q14" s="24"/>
     </row>
     <row r="15" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="37">
         <v>2500</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="33">
+      <c r="E15" s="37">
         <v>0</v>
       </c>
       <c r="F15" s="19"/>
-      <c r="G15" s="33">
+      <c r="G15" s="37">
         <v>0</v>
       </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="43">
+      <c r="I15" s="36">
         <v>5000</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="42">
+      <c r="K15" s="37">
         <v>2500</v>
       </c>
       <c r="L15" s="11"/>
-      <c r="M15" s="33"/>
+      <c r="M15" s="36"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="34"/>
+      <c r="O15" s="38"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="33"/>
+      <c r="Q15" s="36"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I16" s="32"/>
+      <c r="I16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_Image 1.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_Image 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A7B4F-4108-4205-9104-7D9DF003E4B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D71140F-5716-46DD-B756-E4F6978E4A4C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,6 +586,15 @@
     <xf numFmtId="37" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -597,15 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1095,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1116,32 +1116,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="32"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1151,24 +1151,24 @@
       <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="11"/>
       <c r="M2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="20">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="21"/>
@@ -1221,7 +1221,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="19"/>
       <c r="I4" s="20">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="21"/>
@@ -1240,7 +1240,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="24">
-        <v>-3000</v>
+        <v>3600</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="25"/>
@@ -1251,11 +1251,11 @@
       <c r="J5" s="6"/>
       <c r="K5" s="23"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="30">
+        <v>3600</v>
+      </c>
       <c r="N5" s="5"/>
-      <c r="O5" s="26">
-        <v>-3000</v>
-      </c>
+      <c r="O5" s="26"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="25"/>
     </row>
@@ -1267,7 +1267,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="22">
-        <v>1000</v>
+        <v>-2800</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="25"/>
@@ -1278,11 +1278,11 @@
       <c r="J6" s="6"/>
       <c r="K6" s="27"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="24">
-        <v>1000</v>
-      </c>
+      <c r="M6" s="24"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="28"/>
+      <c r="O6" s="28">
+        <v>-2800</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="23"/>
     </row>
@@ -1295,10 +1295,10 @@
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="23"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="19"/>
       <c r="G7" s="24">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="24"/>
@@ -1310,7 +1310,7 @@
       <c r="O7" s="26"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="24">
-        <v>-1000</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1320,21 +1320,21 @@
       <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="29">
-        <v>-1000</v>
-      </c>
+      <c r="C8" s="29"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="27"/>
+      <c r="E8" s="22">
+        <v>1600</v>
+      </c>
       <c r="F8" s="19"/>
-      <c r="G8" s="24">
-        <v>-1000</v>
-      </c>
+      <c r="G8" s="24"/>
       <c r="H8" s="19"/>
       <c r="I8" s="22"/>
       <c r="J8" s="6"/>
       <c r="K8" s="23"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="24"/>
+      <c r="M8" s="24">
+        <v>1600</v>
+      </c>
       <c r="N8" s="5"/>
       <c r="O8" s="28"/>
       <c r="P8" s="7"/>
@@ -1347,21 +1347,21 @@
       <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="24">
+        <v>-700</v>
+      </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="24">
-        <v>500</v>
-      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="24"/>
+      <c r="G9" s="24">
+        <v>-700</v>
+      </c>
       <c r="H9" s="19"/>
       <c r="I9" s="24"/>
       <c r="J9" s="6"/>
       <c r="K9" s="27"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="24">
-        <v>500</v>
-      </c>
+      <c r="M9" s="24"/>
       <c r="N9" s="5"/>
       <c r="O9" s="30"/>
       <c r="P9" s="7"/>
@@ -1374,15 +1374,13 @@
       <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="24">
-        <v>500</v>
-      </c>
+      <c r="C10" s="24"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="24">
-        <v>-500</v>
-      </c>
+      <c r="E10" s="24"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="24">
+        <v>400</v>
+      </c>
       <c r="H10" s="19"/>
       <c r="I10" s="24"/>
       <c r="J10" s="6"/>
@@ -1392,7 +1390,9 @@
       <c r="N10" s="5"/>
       <c r="O10" s="30"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="29"/>
+      <c r="Q10" s="29">
+        <v>-400</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -1403,18 +1403,18 @@
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="24">
+        <v>2100</v>
+      </c>
       <c r="F11" s="19"/>
       <c r="G11" s="31"/>
       <c r="H11" s="19"/>
       <c r="I11" s="31"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="24">
-        <v>1500</v>
-      </c>
+      <c r="K11" s="24"/>
       <c r="L11" s="11"/>
       <c r="M11" s="24">
-        <v>-1500</v>
+        <v>2100</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="26"/>
@@ -1428,27 +1428,25 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="29">
+        <v>1600</v>
+      </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="25"/>
+      <c r="E12" s="31">
+        <v>-1600</v>
+      </c>
       <c r="F12" s="19"/>
       <c r="G12" s="29"/>
       <c r="H12" s="19"/>
       <c r="I12" s="24"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="29">
-        <v>-4000</v>
-      </c>
+      <c r="K12" s="29"/>
       <c r="L12" s="11"/>
       <c r="M12" s="24"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="26">
-        <v>3000</v>
-      </c>
+      <c r="O12" s="26"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="22">
-        <v>1000</v>
-      </c>
+      <c r="Q12" s="22"/>
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -1457,27 +1455,21 @@
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="24">
-        <v>2500</v>
-      </c>
+      <c r="C13" s="24"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="22">
-        <v>0</v>
-      </c>
+      <c r="E13" s="22"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="24">
-        <v>0</v>
-      </c>
+      <c r="G13" s="24"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="22">
-        <v>5000</v>
-      </c>
+      <c r="I13" s="22"/>
       <c r="J13" s="6"/>
       <c r="K13" s="24">
-        <v>2500</v>
+        <v>7300</v>
       </c>
       <c r="L13" s="11"/>
-      <c r="M13" s="24"/>
+      <c r="M13" s="24">
+        <v>-7300</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="28"/>
       <c r="P13" s="7"/>
@@ -1490,65 +1482,64 @@
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="22">
-        <v>2500</v>
-      </c>
+      <c r="C14" s="22"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="29">
-        <v>0</v>
-      </c>
+      <c r="E14" s="29"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="22">
-        <v>0</v>
-      </c>
+      <c r="G14" s="22"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="24">
-        <v>5000</v>
-      </c>
+      <c r="I14" s="24"/>
       <c r="J14" s="6"/>
       <c r="K14" s="22">
-        <v>2500</v>
+        <v>-4000</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="24"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="30"/>
+      <c r="O14" s="30">
+        <v>2800</v>
+      </c>
       <c r="P14" s="7"/>
-      <c r="Q14" s="24"/>
+      <c r="Q14" s="24">
+        <v>1200</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="37">
-        <v>2500</v>
+      <c r="C15" s="33">
+        <v>5700</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="37">
+      <c r="E15" s="33">
+        <v>2100</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="33">
+        <v>500</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="32">
+        <v>4000</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="33">
+        <v>3300</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="32">
         <v>0</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="37">
+      <c r="N15" s="5"/>
+      <c r="O15" s="34">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="36">
-        <v>5000</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="37">
-        <v>2500</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="38"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="36"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I16" s="1"/>
+      <c r="Q15" s="32">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_Image 1.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_Image 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D71140F-5716-46DD-B756-E4F6978E4A4C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836295F9-13BF-C748-8E5D-EBA760E3CC77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Assets</t>
   </si>
@@ -503,7 +502,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -606,6 +605,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1098,24 +1100,24 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="38.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.375" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="10" max="10" width="1.375" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="15" width="13.75" customWidth="1"/>
-    <col min="16" max="16" width="1.375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="35"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -1127,15 +1129,13 @@
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="35"/>
       <c r="C2" s="36" t="s">
         <v>0</v>
@@ -1167,7 +1167,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
     </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="35"/>
       <c r="C3" s="13" t="s">
         <v>7</v>
@@ -1205,7 +1205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="21"/>
     </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>16</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="25"/>
     </row>
-    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>17</v>
       </c>
@@ -1281,12 +1281,12 @@
       <c r="M6" s="24"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28">
-        <v>-2800</v>
+        <v>2800</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="23"/>
     </row>
-    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
@@ -1310,10 +1310,10 @@
       <c r="O7" s="26"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="24">
-        <v>-800</v>
+        <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>19</v>
       </c>
@@ -1340,7 +1340,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="22"/>
     </row>
-    <row r="9" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>20</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="29"/>
     </row>
-    <row r="10" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
@@ -1391,10 +1391,10 @@
       <c r="O10" s="30"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="29">
-        <v>-400</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
@@ -1421,7 +1421,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="24"/>
     </row>
-    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="22"/>
     </row>
-    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>27</v>
       </c>
@@ -1475,7 +1475,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="29"/>
     </row>
-    <row r="14" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
@@ -1491,20 +1491,21 @@
       <c r="I14" s="24"/>
       <c r="J14" s="6"/>
       <c r="K14" s="22">
-        <v>-4000</v>
+        <f>-O14-Q14</f>
+        <v>4000</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="24"/>
       <c r="N14" s="5"/>
       <c r="O14" s="30">
-        <v>2800</v>
+        <v>-2800</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="24">
-        <v>1200</v>
+        <v>-1200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>24</v>
@@ -1526,6 +1527,7 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="33">
+        <f>K13-K14</f>
         <v>3300</v>
       </c>
       <c r="L15" s="11"/>
